--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H2">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.8081106284472</v>
+        <v>33.35034833333334</v>
       </c>
       <c r="N2">
-        <v>28.8081106284472</v>
+        <v>100.051045</v>
       </c>
       <c r="O2">
-        <v>0.213811651557475</v>
+        <v>0.2287589433580892</v>
       </c>
       <c r="P2">
-        <v>0.213811651557475</v>
+        <v>0.2287589433580892</v>
       </c>
       <c r="Q2">
-        <v>6.314707948223421</v>
+        <v>9.679671800963334</v>
       </c>
       <c r="R2">
-        <v>6.314707948223421</v>
+        <v>87.11704620867</v>
       </c>
       <c r="S2">
-        <v>0.213811651557475</v>
+        <v>0.2287589433580892</v>
       </c>
       <c r="T2">
-        <v>0.213811651557475</v>
+        <v>0.2287589433580892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H3">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.671827961276</v>
+        <v>25.677964</v>
       </c>
       <c r="N3">
-        <v>25.671827961276</v>
+        <v>77.03389199999999</v>
       </c>
       <c r="O3">
-        <v>0.1905343951810438</v>
+        <v>0.176132010781908</v>
       </c>
       <c r="P3">
-        <v>0.1905343951810438</v>
+        <v>0.176132010781908</v>
       </c>
       <c r="Q3">
-        <v>5.627238042900831</v>
+        <v>7.452823627288</v>
       </c>
       <c r="R3">
-        <v>5.627238042900831</v>
+        <v>67.075412645592</v>
       </c>
       <c r="S3">
-        <v>0.1905343951810438</v>
+        <v>0.176132010781908</v>
       </c>
       <c r="T3">
-        <v>0.1905343951810438</v>
+        <v>0.176132010781908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H4">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.4847536457339</v>
+        <v>73.55277366666667</v>
       </c>
       <c r="N4">
-        <v>67.4847536457339</v>
+        <v>220.658321</v>
       </c>
       <c r="O4">
-        <v>0.5008668155312983</v>
+        <v>0.5045181122808869</v>
       </c>
       <c r="P4">
-        <v>0.5008668155312983</v>
+        <v>0.5045181122808869</v>
       </c>
       <c r="Q4">
-        <v>14.79258795298459</v>
+        <v>21.34810413456067</v>
       </c>
       <c r="R4">
-        <v>14.79258795298459</v>
+        <v>192.132937211046</v>
       </c>
       <c r="S4">
-        <v>0.5008668155312983</v>
+        <v>0.5045181122808869</v>
       </c>
       <c r="T4">
-        <v>0.5008668155312983</v>
+        <v>0.5045181122808869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H5">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7712326713446</v>
+        <v>13.20708666666667</v>
       </c>
       <c r="N5">
-        <v>12.7712326713446</v>
+        <v>39.62126</v>
       </c>
       <c r="O5">
-        <v>0.09478713773018295</v>
+        <v>0.09059093357911581</v>
       </c>
       <c r="P5">
-        <v>0.09478713773018295</v>
+        <v>0.09059093357911581</v>
       </c>
       <c r="Q5">
-        <v>2.799440945589613</v>
+        <v>3.833251248306667</v>
       </c>
       <c r="R5">
-        <v>2.799440945589613</v>
+        <v>34.49926123476</v>
       </c>
       <c r="S5">
-        <v>0.09478713773018295</v>
+        <v>0.09059093357911581</v>
       </c>
       <c r="T5">
-        <v>0.09478713773018295</v>
+        <v>0.09059093357911581</v>
       </c>
     </row>
   </sheetData>
